--- a/问题记录/《项目问题记录表》-南京实施部-方兆强.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-方兆强.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\问题记录\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9FCB858E-1F17-4B45-8654-FAE0E6994310}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>日期</t>
   </si>
@@ -163,14 +169,38 @@
   </si>
   <si>
     <t>到跟目录中printJob删除多余的文件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州存誉饭店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子菜谱使用，当这个菜谱关联到套餐以后，电子菜谱的显示按钮使用无效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发那里正在处理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>八戒肥肠</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0服务无法启动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在服务里看Mysql是否启动，如果没有启动，则到根目录中看Mysql的bin文件，看看路径是否正确,如果已经启动，则使用管理员身份运行，不行就重复操作</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -275,6 +305,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -285,6 +321,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -576,24 +615,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F21:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="70.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="71.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="70.26953125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="71.26953125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -613,7 +652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43091</v>
       </c>
@@ -633,7 +672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43091</v>
       </c>
@@ -653,7 +692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43108</v>
       </c>
@@ -673,7 +712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43108</v>
       </c>
@@ -693,7 +732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43108</v>
       </c>
@@ -713,7 +752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43108</v>
       </c>
@@ -733,7 +772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43115</v>
       </c>
@@ -753,7 +792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43115</v>
       </c>
@@ -773,7 +812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43124</v>
       </c>
@@ -793,7 +832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43124</v>
       </c>
@@ -813,7 +852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43124</v>
       </c>
@@ -831,6 +870,46 @@
       </c>
       <c r="F12" s="4" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>43182</v>
+      </c>
+      <c r="B13" s="9">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>43186</v>
+      </c>
+      <c r="B14" s="9">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/问题记录/《项目问题记录表》-南京实施部-方兆强.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-方兆强.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\问题记录\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9FCB858E-1F17-4B45-8654-FAE0E6994310}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F510C9C4-62EE-4497-AD71-A49E802ABF30}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>日期</t>
   </si>
@@ -193,6 +193,18 @@
   </si>
   <si>
     <t>在服务里看Mysql是否启动，如果没有启动，则到根目录中看Mysql的bin文件，看看路径是否正确,如果已经启动，则使用管理员身份运行，不行就重复操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方兆强</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡包对接相关问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳房子里有大概流程 对接卡包注意事项：已绑定过第三方卡包的一律不支持</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -616,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F21:F22"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -912,6 +924,17 @@
         <v>44</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问题记录/《项目问题记录表》-南京实施部-方兆强.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-方兆强.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\问题记录\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F510C9C4-62EE-4497-AD71-A49E802ABF30}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5CD04F78-3330-435E-89EF-4F66C4CC1B42}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>日期</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>跳房子里有大概流程 对接卡包注意事项：已绑定过第三方卡包的一律不支持</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saas无法安装，别的软件也无法安装，重装系统也不能重装</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无解决方法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方兆强</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -628,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -935,6 +947,17 @@
         <v>47</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问题记录/《项目问题记录表》-南京实施部-方兆强.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-方兆强.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\问题记录\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5CD04F78-3330-435E-89EF-4F66C4CC1B42}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{90462BB4-E59D-4C26-96A6-7D870087B3EA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>日期</t>
   </si>
@@ -217,6 +217,14 @@
   </si>
   <si>
     <t>方兆强</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0ini文件覆盖以后 打印机不出单 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新获取下打印模板</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -640,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -958,6 +966,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
